--- a/ReportWebApplication/Temp/201706/G01345-01912001-01912001-201706-BT-M-01.xlsx
+++ b/ReportWebApplication/Temp/201706/G01345-01912001-01912001-201706-BT-M-01.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="262">
   <si>
     <t>G01345</t>
   </si>
@@ -107,7 +107,7 @@
     <t>Thu nhập lãi và các khoản thu nhập tương tự</t>
   </si>
   <si>
-    <t>7355180364,0</t>
+    <t>7651558966,0</t>
   </si>
   <si>
     <t>15102976651,0</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">   Thu nhập lãi cho vay</t>
   </si>
   <si>
-    <t>6964294648,0</t>
+    <t>7260673250,0</t>
   </si>
   <si>
     <t>14414641250,0</t>
@@ -167,7 +167,7 @@
     <t>Chi phí lãi và các chi phí tương tự</t>
   </si>
   <si>
-    <t>1487402056,0</t>
+    <t>1783780658,0</t>
   </si>
   <si>
     <t>3496457550,0</t>
@@ -191,7 +191,7 @@
     <t xml:space="preserve">   Trả lãi tiền vay</t>
   </si>
   <si>
-    <t>-113572817,0</t>
+    <t>182805785,0</t>
   </si>
   <si>
     <t>296875477,0</t>
@@ -353,10 +353,10 @@
     <t>Chi nộp thuế và các khoản phí, lệ phí</t>
   </si>
   <si>
-    <t>165429359,0</t>
-  </si>
-  <si>
-    <t>171528359,0</t>
+    <t>28000,0</t>
+  </si>
+  <si>
+    <t>6127000,0</t>
   </si>
   <si>
     <t>R-121</t>
@@ -368,6 +368,9 @@
     <t>Chi phí cho nhân viên</t>
   </si>
   <si>
+    <t>8422569498,0</t>
+  </si>
+  <si>
     <t>R-122</t>
   </si>
   <si>
@@ -473,10 +476,10 @@
     <t xml:space="preserve">   - Chi về các hoạt động đoàn thể của TCTD</t>
   </si>
   <si>
-    <t>7814000,0</t>
-  </si>
-  <si>
-    <t>11314000,0</t>
+    <t>1900000,0</t>
+  </si>
+  <si>
+    <t>2400000,0</t>
   </si>
   <si>
     <t>R-131</t>
@@ -518,10 +521,10 @@
     <t>Chi phí hoạt động</t>
   </si>
   <si>
-    <t>5130791698,0</t>
-  </si>
-  <si>
-    <t>10135869858,0</t>
+    <t>4965390339,0</t>
+  </si>
+  <si>
+    <t>9970468499,0</t>
   </si>
   <si>
     <t>R-135</t>
@@ -533,10 +536,10 @@
     <t>Lợi nhuận thuần từ hoạt động kinh doanh trước chi phí dự phòng rủi ro tín dụng</t>
   </si>
   <si>
-    <t>11048740561,0</t>
-  </si>
-  <si>
-    <t>21849447429,0</t>
+    <t>952558524,0</t>
+  </si>
+  <si>
+    <t>1743109072,0</t>
   </si>
   <si>
     <t>R-136</t>
@@ -548,6 +551,9 @@
     <t>Chi phí dự phòng rủi ro tín dụng cho vay khách hàng</t>
   </si>
   <si>
+    <t>7898753,0</t>
+  </si>
+  <si>
     <t>86572981,0</t>
   </si>
   <si>
@@ -587,7 +593,10 @@
     <t>Lợi nhuận trước thuế TNDN</t>
   </si>
   <si>
-    <t>21936020410,0</t>
+    <t>944659771,0</t>
+  </si>
+  <si>
+    <t>1656536091,0</t>
   </si>
   <si>
     <t>R-141</t>
@@ -631,10 +640,10 @@
     </r>
   </si>
   <si>
-    <t>1104874056,1</t>
-  </si>
-  <si>
-    <t>2193602041,0</t>
+    <t>94465977,1</t>
+  </si>
+  <si>
+    <t>165653609,1</t>
   </si>
   <si>
     <t>R-143</t>
@@ -917,10 +926,10 @@
     <t>Lợi nhuận sau thuế</t>
   </si>
   <si>
-    <t>9943866504,9</t>
-  </si>
-  <si>
-    <t>19742418369,0</t>
+    <t>850193793,9</t>
+  </si>
+  <si>
+    <t>1490882481,9</t>
   </si>
   <si>
     <t>R-166</t>
@@ -1992,52 +2001,54 @@
       <c r="C38" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="D38" s="13"/>
+      <c r="D38" s="13" t="s">
+        <v>114</v>
+      </c>
       <c r="E38" s="14"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="13" t="s">
         <v>60</v>
@@ -2048,132 +2059,132 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48" ht="28.5">
       <c r="A48" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49" ht="42.75">
       <c r="A49" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D49" s="13" t="s">
         <v>60</v>
@@ -2184,10 +2195,10 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>102</v>
@@ -2201,492 +2212,492 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" ht="28.5">
       <c r="A52" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53" ht="28.5">
       <c r="A53" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>60</v>
+        <v>175</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="54" ht="28.5">
       <c r="A54" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="14"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D55" s="13"/>
       <c r="E55" s="14"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>60</v>
+        <v>175</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B58" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="D58" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="E58" s="14" t="s">
         <v>190</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="E58" s="14" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="59" ht="42.75">
       <c r="A59" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="60" ht="42.75">
       <c r="A60" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="14"/>
     </row>
     <row r="61" ht="28.5">
       <c r="A61" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="E61" s="14" t="s">
         <v>198</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="E61" s="14" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D62" s="13"/>
       <c r="E62" s="14"/>
     </row>
     <row r="63" ht="28.5">
       <c r="A63" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D63" s="13"/>
       <c r="E63" s="14"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D64" s="13"/>
       <c r="E64" s="14"/>
     </row>
     <row r="65" ht="28.5">
       <c r="A65" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D65" s="13"/>
       <c r="E65" s="14"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D66" s="13"/>
       <c r="E66" s="14"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D67" s="13"/>
       <c r="E67" s="14"/>
     </row>
     <row r="68" ht="42.75">
       <c r="A68" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D68" s="13"/>
       <c r="E68" s="14"/>
     </row>
     <row r="69" ht="42.75">
       <c r="A69" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D69" s="13"/>
       <c r="E69" s="14"/>
     </row>
     <row r="70" ht="28.5">
       <c r="A70" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="14"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D71" s="13"/>
       <c r="E71" s="14"/>
     </row>
     <row r="72" ht="28.5">
       <c r="A72" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="14"/>
     </row>
     <row r="73" ht="28.5">
       <c r="A73" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D73" s="13"/>
       <c r="E73" s="14"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D74" s="13"/>
       <c r="E74" s="14"/>
     </row>
     <row r="75" ht="42.75">
       <c r="A75" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D75" s="13"/>
       <c r="E75" s="14"/>
     </row>
     <row r="76" ht="42.75">
       <c r="A76" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D76" s="13"/>
       <c r="E76" s="14"/>
     </row>
     <row r="77" ht="42.75">
       <c r="A77" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D77" s="13"/>
       <c r="E77" s="14"/>
     </row>
     <row r="78" ht="42.75">
       <c r="A78" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D78" s="13"/>
       <c r="E78" s="14"/>
     </row>
     <row r="79" ht="42.75">
       <c r="A79" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D79" s="13"/>
       <c r="E79" s="14"/>
     </row>
     <row r="80" ht="28.5">
       <c r="A80" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D80" s="13"/>
       <c r="E80" s="14"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E81" s="14" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E82" s="14" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D83" s="13"/>
       <c r="E83" s="14"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D84" s="13"/>
       <c r="E84" s="14"/>
     </row>
     <row r="86" ht="300" customHeight="1">
       <c r="A86" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B86" s="22" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C86" s="22"/>
       <c r="D86" s="22"/>
